--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2207755.044239595</v>
+        <v>2311934.678690667</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9507242.414851872</v>
+        <v>9507242.41485187</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>173.084019365202</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -710,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>129.5398680316074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>161.8482680709832</v>
       </c>
       <c r="V4" t="n">
-        <v>241.0365687365655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.6826708844488</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>147.0290144562258</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785988</v>
       </c>
       <c r="V7" t="n">
-        <v>97.38331399798791</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0423659626492</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>119.0033277132837</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.04027315184531</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>102.8228810500194</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>43.73846614325132</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1765,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977622</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>152.3771414330733</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>150.3341561773491</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>91.32784210538776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8180354051597</v>
       </c>
       <c r="U25" t="n">
-        <v>155.6850131498963</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>63.841556412593</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>172.026033500079</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>140.7058473537592</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105552</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>50.06209150957608</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>78.13809416960228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6685478670739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>39.52129633183125</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>139.1630968205461</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>2222.416181075866</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1853.453664135454</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1495.187965528703</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1109.399712930459</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>698.4138081408516</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>283.3413579858481</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>2609.016021139988</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927775</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199864</v>
@@ -4449,7 +4451,7 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4513,25 +4515,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415546</v>
+        <v>1482.295107611247</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.22619386346</v>
+        <v>1227.61061940536</v>
       </c>
       <c r="W4" t="n">
-        <v>1082.809023826499</v>
+        <v>938.1934493683999</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>710.2038984703826</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>710.2038984703826</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V7" t="n">
-        <v>1126.372197774137</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W7" t="n">
-        <v>1126.372197774137</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>1126.372197774137</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.372197774137</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1921.870414581995</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1552.907897641583</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1194.642199034832</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>808.8539464365881</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>397.8680416469805</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3095.109771607697</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3095.109771607697</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>3095.109771607697</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W8" t="n">
-        <v>3095.109771607697</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X8" t="n">
-        <v>2721.644013346617</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.007895746702</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X10" t="n">
-        <v>1127.007895746702</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.007895746702</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5038,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5127,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,49 +5202,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038306</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2389.334518447046</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>2884.660124662805</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>3482.038612289356</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>4033.948342528643</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400749</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812168</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998322</v>
+        <v>618.4214495336224</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>618.4214495336224</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>471.531502035712</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5455,31 +5457,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648823</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611862</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138447</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703146</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5501,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>315.9123021921482</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T19" t="n">
-        <v>2045.209862480144</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U19" t="n">
-        <v>2045.209862480144</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1790.525374274257</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2878.328163333972</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3474.685803651587</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4102.283767206194</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>854.7852236114971</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>704.6685841991614</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>556.7554906167683</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>409.8655431188579</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>1205.369871369644</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,16 +6074,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U25" t="n">
-        <v>1820.203491470209</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V25" t="n">
-        <v>1565.519003264322</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W25" t="n">
-        <v>1276.101833227361</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1048.112282329344</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6206,34 +6208,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.2677182139842</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>530.3315352860773</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2382.47666296148</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2162.875197984421</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>1873.799971328619</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1619.115483122732</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1329.698313085771</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1101.708762187754</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>880.9161830442239</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>2951.542595286852</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>2782.606412358945</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>2632.48977294661</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>2484.576679364216</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>4507.9783180535</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>4288.376853076441</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>3999.301626420639</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>3744.617138214752</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>3455.199968177792</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>3133.191060117092</v>
       </c>
     </row>
     <row r="32">
@@ -6683,37 +6685,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6789,16 +6791,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306003</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C34" t="n">
-        <v>2655.833190378096</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D34" t="n">
-        <v>2655.833190378096</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309226</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
         <v>2337.686731866304</v>
@@ -6880,28 +6882,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,19 +7013,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,55 +7071,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>286.0962634073658</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>286.0962634073658</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>144.3844322495639</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
@@ -7135,10 +7137,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>215.8238677453423</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7772127656159</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>782.841029837709</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1836.89229584329</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.207807637403</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>137.2878198583933</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667929</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>13.14699685919553</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>40.23897475306271</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>67.07129414993915</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>74.19629618688109</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.587414922128545</v>
       </c>
       <c r="U25" t="n">
-        <v>130.4994612393479</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>117.1847295890516</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>45.37941682720927</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.81829093850965</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>125.5054897610393</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>137.2878198583883</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409392964</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>31.20374480898944</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.4465591824925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>105.8997516911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26442,7 +26444,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-912471.3138439428</v>
+        <v>-912471.3138439426</v>
       </c>
       <c r="C6" t="n">
-        <v>416273.4318836496</v>
+        <v>416273.4318836498</v>
       </c>
       <c r="D6" t="n">
-        <v>416273.4318836496</v>
+        <v>416273.4318836493</v>
       </c>
       <c r="E6" t="n">
-        <v>166438.0379544238</v>
+        <v>166438.0379544243</v>
       </c>
       <c r="F6" t="n">
         <v>491850.4997617792</v>
       </c>
       <c r="G6" t="n">
+        <v>491850.4997617788</v>
+      </c>
+      <c r="H6" t="n">
+        <v>491850.499761779</v>
+      </c>
+      <c r="I6" t="n">
+        <v>491850.4997617793</v>
+      </c>
+      <c r="J6" t="n">
+        <v>274319.2973645018</v>
+      </c>
+      <c r="K6" t="n">
+        <v>491850.4997617789</v>
+      </c>
+      <c r="L6" t="n">
+        <v>491850.499761779</v>
+      </c>
+      <c r="M6" t="n">
+        <v>406795.4718262675</v>
+      </c>
+      <c r="N6" t="n">
         <v>491850.4997617792</v>
       </c>
-      <c r="H6" t="n">
-        <v>491850.4997617792</v>
-      </c>
-      <c r="I6" t="n">
-        <v>491850.4997617789</v>
-      </c>
-      <c r="J6" t="n">
-        <v>274319.2973645016</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
+        <v>491850.499761779</v>
+      </c>
+      <c r="P6" t="n">
         <v>491850.4997617793</v>
-      </c>
-      <c r="L6" t="n">
-        <v>491850.4997617793</v>
-      </c>
-      <c r="M6" t="n">
-        <v>406795.4718262674</v>
-      </c>
-      <c r="N6" t="n">
-        <v>491850.4997617788</v>
-      </c>
-      <c r="O6" t="n">
-        <v>491850.4997617791</v>
-      </c>
-      <c r="P6" t="n">
-        <v>491850.4997617792</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,16 +26807,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>121.5237450221184</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.6980706244461</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>124.3635701346297</v>
       </c>
       <c r="V4" t="n">
-        <v>11.10107458726253</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.05117077903174</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>56.88895568339433</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="V7" t="n">
-        <v>154.7543293258401</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>82.87935969080428</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>84.91464242633641</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.791707030092</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>183.3889571555935</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28272,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31847,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>193.1175412796309</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>295.3955842839424</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>211.0222436375122</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>744.5154887882964</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>558.3177848342784</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154041</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>260.1710714068256</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727241</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096312</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>157.5541453095834</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35823,7 +35825,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572999023</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>602.3814548662781</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>426.9760727509451</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410451</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>122.3296324324666</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>439.190340064064</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507058</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>167.3462379728918</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2311934.678690667</v>
+        <v>2307922.068676674</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283197</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9507242.41485187</v>
+        <v>9507242.414851869</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>173.084019365202</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.4916849718826</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.38003424864945</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>161.8482680709832</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>147.0290144562258</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5146946421466</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>181.1375494785988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>328.0423659626492</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>22.05778319390971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>89.20227235999694</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>102.8228810500194</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771024</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695499</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.8176890312854</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U12" t="n">
         <v>225.7478006422472</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>43.73846614325132</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>38.21875275164343</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695499</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.8176890312854</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U15" t="n">
         <v>225.7478006422472</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>152.3771414330733</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>35.88641949136175</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.13627195705896</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>91.32784210538776</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>216.8180354051597</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457416939</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.7811435429926</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576171</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811397</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.07916359105552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348212</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.9742741983392</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634649</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>50.06209150957608</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>166.0820601387155</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576171</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605710062</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2222.416181075866</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1853.453664135454</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1495.187965528703</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>1109.399712930459</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>698.4138081408516</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>283.3413579858481</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139988</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X2" t="n">
-        <v>2609.016021139988</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y2" t="n">
-        <v>2609.016021139988</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927775</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4439,22 +4439,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.5554336401428</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C4" t="n">
-        <v>359.619250712236</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1482.295107611247</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1227.61061940536</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W4" t="n">
-        <v>938.1934493683999</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X4" t="n">
-        <v>710.2038984703826</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y4" t="n">
-        <v>710.2038984703826</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="5">
@@ -4564,52 +4564,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3177.09166559278</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>3177.09166559278</v>
+        <v>3118.015220960539</v>
       </c>
       <c r="V5" t="n">
-        <v>3177.09166559278</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W5" t="n">
-        <v>2824.323010322666</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
         <v>2434.183678346854</v>
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218339</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218339</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1241.044369546818</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>986.3598813409312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>696.9427113039706</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1921.870414581995</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="C8" t="n">
-        <v>1552.907897641583</v>
+        <v>869.0763550278982</v>
       </c>
       <c r="D8" t="n">
-        <v>1194.642199034832</v>
+        <v>510.8106564211477</v>
       </c>
       <c r="E8" t="n">
-        <v>808.8539464365881</v>
+        <v>510.8106564211477</v>
       </c>
       <c r="F8" t="n">
-        <v>397.8680416469805</v>
+        <v>99.82475163154015</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>88.79270551694071</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>88.79270551694071</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
         <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883008</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883008</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2698.609586621928</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>2308.470254646116</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>453.6220087565679</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>453.6220087565679</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>303.5053693442321</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>303.5053693442321</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>156.6154218463218</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4992,22 +4992,22 @@
         <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U10" t="n">
-        <v>1409.980552474725</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>674.414587900098</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>453.6220087565679</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551892</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797221</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192707</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075848</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332393</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014786</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355947</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068023</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694721</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852271</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398611</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492595</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474801</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946659</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.74961212302</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852905</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591826</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616014</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300131</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568981</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028059</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797221</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273963</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780395</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516168</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516168</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1176.533952578171</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132779</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2356.041646372068</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107661</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107661</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5153,7 +5153,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V12" t="n">
         <v>1781.463605996603</v>
@@ -5162,7 +5162,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y12" t="n">
         <v>1111.614450297915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>719.5738700011939</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>550.637687073287</v>
+        <v>847.6442739835334</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711976</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888045</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057741</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797221</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797221</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782965</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038306</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797767</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853421</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580321</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580321</v>
       </c>
       <c r="S13" t="n">
-        <v>2402.78281474869</v>
+        <v>2264.108249235226</v>
       </c>
       <c r="T13" t="n">
-        <v>2183.181349771631</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U13" t="n">
-        <v>1894.106123115829</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V13" t="n">
-        <v>1639.421634909942</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1350.004464872981</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1122.014913974964</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.2223348314336</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,61 +5257,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111567</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075676</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332376</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301477</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355931</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5345,40 +5345,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527393</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803947</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803947</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>740.556298996155</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622709</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237708</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237708</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732778</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2516.421633107661</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>768.5380889459582</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>618.4214495336224</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>618.4214495336224</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>471.531502035712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782962</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038354</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797764</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5539,25 +5539,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>854.7852236114971</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>704.6685841991614</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>556.7554906167683</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>409.8655431188579</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1205.369871369644</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1978.054428916699</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551857</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611446</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004695</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406451</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311169</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075766</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332381</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301477</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355926</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067997</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694692</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852239</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398576</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492561</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474766</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466556</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122985</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852871</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591791</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615979</v>
       </c>
     </row>
     <row r="27">
@@ -6281,58 +6281,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300126</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568975</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028054</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273846</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803925</v>
       </c>
       <c r="K27" t="n">
-        <v>315.9123021921476</v>
+        <v>579.155464951612</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T27" t="n">
         <v>2244.643795685161</v>
@@ -6350,7 +6350,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>549.6145409888039</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>549.6145409888039</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888039</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888039</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057735</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038329</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797722</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>952.0555849625738</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>731.2630058190437</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819414</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111858</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107594</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332398</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014787</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355943</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2951.542595286852</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C31" t="n">
-        <v>2782.606412358945</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.48977294661</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="E31" t="n">
-        <v>2484.576679364216</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866306</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866306</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866306</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398595</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.9783180535</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076441</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420639</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.617138214752</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177792</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279774</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y31" t="n">
-        <v>3133.191060117092</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638194282</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111873</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075949</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,43 +6764,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>632.7243904253736</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>632.7243904253736</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>632.7243904253736</v>
       </c>
       <c r="E34" t="n">
-        <v>2438.670847218162</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="F34" t="n">
-        <v>2438.670847218162</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="35">
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797156</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075771</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332381</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694694</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885224</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398578</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492563</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474768</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466558</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122987</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852873</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591793</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615981</v>
       </c>
     </row>
     <row r="36">
@@ -6992,58 +6992,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300126</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568976</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028054</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797156</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273849</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803925</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951612</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T36" t="n">
         <v>2244.643795685161</v>
@@ -7061,7 +7061,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>641.1291986799071</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876693</v>
+        <v>641.1291986799071</v>
       </c>
       <c r="D37" t="n">
-        <v>580.8993044876693</v>
+        <v>491.0125592675713</v>
       </c>
       <c r="E37" t="n">
-        <v>432.9862109052762</v>
+        <v>343.0994656851782</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0962634073658</v>
+        <v>343.0994656851782</v>
       </c>
       <c r="G37" t="n">
-        <v>286.0962634073658</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="H37" t="n">
-        <v>144.3844322495639</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797156</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038329</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797722</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235159</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.5067842581</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602298</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396411</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.32989935945</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>822.7776635101468</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638194282</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111873</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075949</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,40 +7238,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821489</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270383</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7548,22 +7548,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7645,28 +7645,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856535</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101214</v>
       </c>
       <c r="S13" t="n">
-        <v>137.2878198583933</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>179.1866975756448</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>13.14699685919553</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856535</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101214</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.1398665102827</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.23897475306271</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>74.19629618688109</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.587414922128545</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.750777300912887e-11</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>35.40333084625152</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405139</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>125.5054897610393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>117.6820817884552</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409392964</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>31.20374480898944</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>59.6275952503216</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>119.8635921600918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405138</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252417</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252404</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252388</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.53502524</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.53502524</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.53502524</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675056</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675033</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
@@ -26346,16 +26346,16 @@
         <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>-8.082544085239839e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972737</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>1.287411578232422e-09</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.310193849552888e-09</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316936</v>
@@ -26444,16 +26444,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181884</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239074</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239068</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239068</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-912471.3138439426</v>
+        <v>-912471.3138439431</v>
       </c>
       <c r="C6" t="n">
-        <v>416273.4318836498</v>
+        <v>416273.43188365</v>
       </c>
       <c r="D6" t="n">
-        <v>416273.4318836493</v>
+        <v>416273.4318836497</v>
       </c>
       <c r="E6" t="n">
-        <v>166438.0379544243</v>
+        <v>166090.6587000643</v>
       </c>
       <c r="F6" t="n">
-        <v>491850.4997617792</v>
+        <v>491503.1205074237</v>
       </c>
       <c r="G6" t="n">
-        <v>491850.4997617788</v>
+        <v>491503.1205074246</v>
       </c>
       <c r="H6" t="n">
-        <v>491850.499761779</v>
+        <v>491503.120507422</v>
       </c>
       <c r="I6" t="n">
-        <v>491850.4997617793</v>
+        <v>491503.120507422</v>
       </c>
       <c r="J6" t="n">
-        <v>274319.2973645018</v>
+        <v>273971.9181101477</v>
       </c>
       <c r="K6" t="n">
-        <v>491850.4997617789</v>
+        <v>491503.1205074209</v>
       </c>
       <c r="L6" t="n">
-        <v>491850.499761779</v>
+        <v>491503.1205074221</v>
       </c>
       <c r="M6" t="n">
-        <v>406795.4718262675</v>
+        <v>406448.0925719098</v>
       </c>
       <c r="N6" t="n">
-        <v>491850.4997617792</v>
+        <v>491503.1205074219</v>
       </c>
       <c r="O6" t="n">
-        <v>491850.499761779</v>
+        <v>491503.1205074197</v>
       </c>
       <c r="P6" t="n">
-        <v>491850.4997617793</v>
+        <v>491503.1205074221</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341677</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341677</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26761,19 +26761,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099653</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099644</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099645</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-1.735747785087452e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973597</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402288</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>5.002220859751105e-12</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973597</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>121.5237450221184</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>308.2605734982523</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.86678684997838</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>124.3635701346297</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27669,13 +27669,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>56.88895568339433</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>45.48047731675535</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>105.074288727014</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>82.87935969080428</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>19.51914657901622</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>76.82353589903128</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>183.3889571555935</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.573937467705561e-11</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>5.448536436839883e-11</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-11</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-9.663381206337361e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348447</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135355</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663294</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817592</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162582</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175698</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.271511415945</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460051</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669238</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043735</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292904</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651534</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078757</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659457</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521107</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007752</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420762</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422597</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.546647686214</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071803</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.080820443726</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>295.9743940159392</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418565</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742452</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937737</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275959</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189909</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121576</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869294</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796266</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355185</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588162</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392055</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106798</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920066</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417322</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515932</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670481</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532777</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099325</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467225</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348447</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135355</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663127</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817592</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162582</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175698</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.271511415945</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460051</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669238</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043735</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292904</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651534</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078757</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659457</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521107</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007752</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420762</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473088</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.546647686214</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>658.2124561388885</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214711</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485299</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.6892564418565</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742452</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937737</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275959</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189909</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121576</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869294</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796266</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355185</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588162</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392055</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106798</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920066</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417322</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515932</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670481</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532777</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099325</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467225</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>472.97362791687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K27" t="n">
-        <v>211.0222436375116</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558083</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K30" t="n">
-        <v>248.0319961154041</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067402</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558083</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067402</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192626</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175677</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043726</v>
@@ -34444,31 +34444,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>270.9486956727241</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317796</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396431</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367787</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146271</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902971</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193541</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243183</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683831</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924742</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902413</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600775171</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754095</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679007</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641956</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238471</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992816</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>161.999986601609</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789256</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295381</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096312</v>
+        <v>264.3325884096356</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191323</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010461</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899083</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060463</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066802</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998989</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317796</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396265</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367787</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146271</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902971</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193541</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243183</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683831</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924742</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902413</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600775171</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754095</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674346</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641956</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>526.8707440555552</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071409</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625084</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789256</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295381</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096356</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191323</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010461</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899083</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060463</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066257</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998989</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>330.3773834724256</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K27" t="n">
-        <v>73.1808046631526</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113638</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K30" t="n">
-        <v>110.1905571410451</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236334274</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113638</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236334274</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359293</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
         <v>735.300110790295</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.190340064064</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>128.8146617507058</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2307922.068676674</v>
+        <v>2309682.598979459</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283197</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9507242.414851869</v>
+        <v>9507242.414851872</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>298.7307299422358</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>19.4916849718826</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>87.38003424864945</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>109.1425972588402</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>246.6857009458093</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>205.5146946421466</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>34.85336344753333</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>82.70057996958639</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.998630822261</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>22.05778319390971</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>89.20227235999694</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.272891771024</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695499</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.8176890312854</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
         <v>225.7478006422472</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>38.21875275164343</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695499</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.8176890312854</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
         <v>225.7478006422472</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>107.4021082756247</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.88641949136175</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>246.8396949358811</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457416939</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>250.7811435429926</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576171</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085811397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.14989839348212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>220.2194287427533</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634649</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0820601387155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576171</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605710062</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012194</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2736.118358115654</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2736.118358115654</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2736.118358115654</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304.8914167017408</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445191</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>935.322011573528</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X4" t="n">
-        <v>707.3324606755107</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.5398815319805</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1867.11669882964</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1867.11669882964</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3118.015220960539</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.952333616968</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2434.183678346854</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.03887196831</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278982</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211477</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E8" t="n">
-        <v>510.8106564211477</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F8" t="n">
-        <v>99.82475163154015</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>88.79270551694071</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>88.79270551694071</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032432</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>453.6220087565679</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>453.6220087565679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>303.5053693442321</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>303.5053693442321</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>156.6154218463218</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>902.4041387981154</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>674.414587900098</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>453.6220087565679</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551892</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797221</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192707</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075848</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332393</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014786</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355947</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068023</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694721</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852271</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398611</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492595</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474801</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946659</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.74961212302</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852905</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591826</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616014</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300131</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568981</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797221</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273963</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.230692780395</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516168</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516168</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.041646372068</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107661</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107661</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5153,7 +5153,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
         <v>1781.463605996603</v>
@@ -5162,7 +5162,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
         <v>1111.614450297915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835334</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711976</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888045</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057741</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797221</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797221</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782965</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038357</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797767</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853421</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580321</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580321</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235226</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2225.50344847599</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.428221820188</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111567</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075676</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332376</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301477</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355931</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5342,43 +5342,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527393</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803947</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803947</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>740.556298996155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622709</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237708</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237708</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732778</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107661</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098246</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>814.4194208819177</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>664.302781469582</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>516.3896878871889</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>369.4997403892785</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041584</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782962</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797764</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2410.714175003133</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.112710026075</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681612</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5494,10 +5494,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,10 +5533,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551857</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611446</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004695</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406451</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311169</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075766</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332381</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301477</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355926</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291067997</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694692</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852239</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398576</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492561</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474766</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466556</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612122985</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852871</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591791</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615979</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300126</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568975</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028054</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273846</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.155464951612</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167369</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793919</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348524</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6332,7 +6332,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
         <v>2244.643795685161</v>
@@ -6350,7 +6350,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>549.6145409888039</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888039</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888039</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888039</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908935</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797153</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038329</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797722</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1724.146794103439</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V28" t="n">
-        <v>1469.462305897552</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W28" t="n">
-        <v>1180.045135860591</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X28" t="n">
-        <v>952.0555849625738</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y28" t="n">
-        <v>731.2630058190437</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819414</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111858</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107594</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332398</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014787</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355943</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,34 +6527,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273882</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803928</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516123</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167369</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793919</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348524</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400653</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487561</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510502</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.3858538547</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648813</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611853</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138352</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.502065570305</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638194282</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111873</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075949</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,34 +6764,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273882</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803928</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516123</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167369</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793919</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348524</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>632.7243904253736</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253736</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253736</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429805</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429805</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578604</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487561</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510502</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.3858538547</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648813</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611853</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138352</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.502065570305</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075771</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332381</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694694</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398578</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492563</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474768</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466558</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612122987</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852873</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591793</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615981</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300126</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568976</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028054</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273849</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.155464951612</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167369</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793919</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348524</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7043,7 +7043,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
         <v>2244.643795685161</v>
@@ -7061,7 +7061,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.1291986799071</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799071</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675713</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851782</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851782</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000581</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038329</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797722</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.5067842581</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602298</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.32989935945</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>822.7776635101468</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638194282</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111873</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075949</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,34 +7238,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273882</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803928</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516123</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167369</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793919</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821489</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400653</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270383</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832657</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487561</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510502</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.3858538547</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648813</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611853</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138352</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.502065570305</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856535</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101214</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>179.1866975756448</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>32.89260457059919</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856535</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101214</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>145.1398665102827</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>5.297948387946889</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.750777300912887e-11</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>35.40333084625152</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405139</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>117.6820817884552</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>31.91821458107469</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>59.6275952503216</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405138</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818735.5350252417</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818735.5350252404</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818735.5350252388</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818735.53502524</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818735.53502524</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818735.53502524</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982127</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675056</v>
+        <v>605359.949767504</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675033</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26368,19 +26368,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073589</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.082544085239839e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972737</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>1.287411578232422e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.310193849552888e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26432,7 +26432,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26450,10 +26450,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181884</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239074</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239068</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239068</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-912471.3138439431</v>
+        <v>-912471.3138439427</v>
       </c>
       <c r="C6" t="n">
-        <v>416273.43188365</v>
+        <v>416273.4318836496</v>
       </c>
       <c r="D6" t="n">
-        <v>416273.4318836497</v>
+        <v>416273.4318836496</v>
       </c>
       <c r="E6" t="n">
-        <v>166090.6587000643</v>
+        <v>166403.3000289879</v>
       </c>
       <c r="F6" t="n">
-        <v>491503.1205074237</v>
+        <v>491815.7618363432</v>
       </c>
       <c r="G6" t="n">
-        <v>491503.1205074246</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="H6" t="n">
-        <v>491503.120507422</v>
+        <v>491815.7618363434</v>
       </c>
       <c r="I6" t="n">
-        <v>491503.120507422</v>
+        <v>491815.7618363432</v>
       </c>
       <c r="J6" t="n">
-        <v>273971.9181101477</v>
+        <v>274284.5594390656</v>
       </c>
       <c r="K6" t="n">
-        <v>491503.1205074209</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="L6" t="n">
-        <v>491503.1205074221</v>
+        <v>491815.7618363437</v>
       </c>
       <c r="M6" t="n">
-        <v>406448.0925719098</v>
+        <v>406760.7339008318</v>
       </c>
       <c r="N6" t="n">
-        <v>491503.1205074219</v>
+        <v>491815.7618363438</v>
       </c>
       <c r="O6" t="n">
-        <v>491503.1205074197</v>
+        <v>491815.7618363437</v>
       </c>
       <c r="P6" t="n">
-        <v>491503.1205074221</v>
+        <v>491815.7618363433</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341677</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341677</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26761,19 +26761,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099653</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26807,25 +26807,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099644</v>
-      </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099645</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483786</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.735747785087452e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973597</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402288</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
-        <v>5.002220859751105e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973597</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>66.54216182877173</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>308.2605734982523</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>79.86678684997838</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>109.4420560932546</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>107.9973406748737</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>45.48047731675535</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>144.978616734404</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>83.32522828944184</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194505</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>19.51914657901622</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>76.82353589903128</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.573937467705561e-11</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.448536436839883e-11</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.56319401867222e-11</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-9.663381206337361e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348447</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135355</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663294</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817592</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162582</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175698</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.271511415945</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460051</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236526</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669238</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043735</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292904</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651534</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078757</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659457</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521107</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007752</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420762</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.546647686214</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443726</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>295.9743940159392</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418565</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742452</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937737</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275959</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189909</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121576</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869294</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796266</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355185</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588162</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392055</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106798</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920066</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417322</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515932</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670481</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532777</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099325</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467225</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348447</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135355</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663127</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817592</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162582</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175698</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.271511415945</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460051</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236526</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669238</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043735</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292904</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651534</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078757</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659457</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521107</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007752</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420762</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473088</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.546647686214</v>
+        <v>444.2274915982885</v>
       </c>
       <c r="N15" t="n">
-        <v>658.2124561388885</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485299</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418565</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742452</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937737</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275959</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189909</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121576</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869294</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796266</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355185</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588162</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392055</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106798</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920066</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417322</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515932</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670481</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532777</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099325</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467225</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007747</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558083</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007747</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473057</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558087</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067402</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007747</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558087</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007747</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558083</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067402</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007747</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192626</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317796</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396431</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367787</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146271</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902971</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193541</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243183</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683831</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924742</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902413</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600775171</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754095</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496679007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641956</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238471</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992816</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>161.999986601609</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789256</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295381</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096356</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191323</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010461</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899083</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060463</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066802</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998989</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317796</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396265</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367787</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146271</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902971</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193541</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243183</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683831</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924742</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902413</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600775171</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754095</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674346</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641956</v>
+        <v>302.0934576762701</v>
       </c>
       <c r="N15" t="n">
-        <v>526.8707440555552</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071409</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789256</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295381</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096356</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191323</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010461</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899083</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060463</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066257</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998989</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774673</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113638</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774673</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674315</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113643</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236334274</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774673</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113643</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774673</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113638</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236334274</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774673</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359293</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
